--- a/experiments/droptc/sentence/DroPTC-all-mpnet-base-v2-sentence/unfreeze/ce-uniform/37622020/prediction.xlsx
+++ b/experiments/droptc/sentence/DroPTC-all-mpnet-base-v2-sentence/unfreeze/ce-uniform/37622020/prediction.xlsx
@@ -490,7 +490,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9929711222648621</v>
+        <v>0.9866266846656799</v>
       </c>
     </row>
     <row r="3">
@@ -518,7 +518,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9930249452590942</v>
+        <v>0.9859879612922668</v>
       </c>
     </row>
     <row r="4">
@@ -546,7 +546,7 @@
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9928485155105591</v>
+        <v>0.9791917204856873</v>
       </c>
     </row>
     <row r="5">
@@ -574,7 +574,7 @@
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8868225812911987</v>
+        <v>0.8732843399047852</v>
       </c>
     </row>
     <row r="6">
@@ -602,7 +602,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9930061101913452</v>
+        <v>0.9861381649971008</v>
       </c>
     </row>
     <row r="7">
@@ -630,7 +630,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9929929971694946</v>
+        <v>0.9862754344940186</v>
       </c>
     </row>
     <row r="8">
@@ -658,7 +658,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9929701685905457</v>
+        <v>0.9865715503692627</v>
       </c>
     </row>
     <row r="9">
@@ -686,7 +686,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9929975271224976</v>
+        <v>0.977161705493927</v>
       </c>
     </row>
     <row r="10">
@@ -714,7 +714,7 @@
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9929701685905457</v>
+        <v>0.9865715503692627</v>
       </c>
     </row>
     <row r="11">
@@ -735,14 +735,14 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9926708936691284</v>
+        <v>0.8725025653839111</v>
       </c>
     </row>
     <row r="12">
@@ -770,7 +770,7 @@
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9929634928703308</v>
+        <v>0.986367404460907</v>
       </c>
     </row>
     <row r="13">
@@ -798,7 +798,7 @@
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9682058095932007</v>
+        <v>0.946527361869812</v>
       </c>
     </row>
     <row r="14">
@@ -826,7 +826,7 @@
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9929855465888977</v>
+        <v>0.9867653846740723</v>
       </c>
     </row>
     <row r="15">
@@ -854,7 +854,7 @@
         <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9929855465888977</v>
+        <v>0.9866677522659302</v>
       </c>
     </row>
     <row r="16">
@@ -882,7 +882,7 @@
         <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9929965138435364</v>
+        <v>0.9861072301864624</v>
       </c>
     </row>
     <row r="17">
@@ -910,7 +910,7 @@
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9930102229118347</v>
+        <v>0.9862498044967651</v>
       </c>
     </row>
     <row r="18">
@@ -938,7 +938,7 @@
         <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>0.6543508768081665</v>
+        <v>0.6234996318817139</v>
       </c>
     </row>
     <row r="19">
@@ -966,7 +966,7 @@
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9929753541946411</v>
+        <v>0.9862311482429504</v>
       </c>
     </row>
     <row r="20">
@@ -994,7 +994,7 @@
         <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9929782748222351</v>
+        <v>0.9864615797996521</v>
       </c>
     </row>
     <row r="21">
@@ -1022,7 +1022,7 @@
         <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9930019974708557</v>
+        <v>0.9861193895339966</v>
       </c>
     </row>
     <row r="22">
@@ -1050,7 +1050,7 @@
         <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9929903745651245</v>
+        <v>0.9866300821304321</v>
       </c>
     </row>
     <row r="23">
@@ -1078,7 +1078,7 @@
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9929842948913574</v>
+        <v>0.9862880706787109</v>
       </c>
     </row>
     <row r="24">
@@ -1106,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9929714798927307</v>
+        <v>0.986255943775177</v>
       </c>
     </row>
     <row r="25">
@@ -1134,7 +1134,7 @@
         <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>0.8870958089828491</v>
+        <v>0.8731568455696106</v>
       </c>
     </row>
     <row r="26">
@@ -1162,7 +1162,7 @@
         <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>0.6574689745903015</v>
+        <v>0.6220917105674744</v>
       </c>
     </row>
     <row r="27">
@@ -1190,7 +1190,7 @@
         <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9929943680763245</v>
+        <v>0.9866699576377869</v>
       </c>
     </row>
     <row r="28">
@@ -1218,7 +1218,7 @@
         <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>0.9930249452590942</v>
+        <v>0.9859879612922668</v>
       </c>
     </row>
     <row r="29">
@@ -1246,7 +1246,7 @@
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9929540753364563</v>
+        <v>0.9867498278617859</v>
       </c>
     </row>
     <row r="30">
@@ -1274,7 +1274,7 @@
         <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>0.9929967522621155</v>
+        <v>0.9862171411514282</v>
       </c>
     </row>
     <row r="31">
@@ -1302,7 +1302,7 @@
         <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9930219054222107</v>
+        <v>0.9859235286712646</v>
       </c>
     </row>
     <row r="32">
@@ -1330,7 +1330,7 @@
         <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>0.992990255355835</v>
+        <v>0.9862587451934814</v>
       </c>
     </row>
     <row r="33">
@@ -1358,7 +1358,7 @@
         <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>0.9493816494941711</v>
+        <v>0.9227080941200256</v>
       </c>
     </row>
     <row r="34">
@@ -1386,7 +1386,7 @@
         <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>0.7365614771842957</v>
+        <v>0.9464514255523682</v>
       </c>
     </row>
     <row r="35">
@@ -1414,7 +1414,7 @@
         <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9680148959159851</v>
+        <v>0.9464722275733948</v>
       </c>
     </row>
     <row r="36">
@@ -1442,7 +1442,7 @@
         <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>0.9929942488670349</v>
+        <v>0.9861631989479065</v>
       </c>
     </row>
     <row r="37">
@@ -1470,7 +1470,7 @@
         <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>0.9681020379066467</v>
+        <v>0.9465323686599731</v>
       </c>
     </row>
     <row r="38">
@@ -1498,7 +1498,7 @@
         <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>0.9929705262184143</v>
+        <v>0.9864205121994019</v>
       </c>
     </row>
     <row r="39">
@@ -1526,7 +1526,7 @@
         <v>1</v>
       </c>
       <c r="F39" t="n">
-        <v>0.9677818417549133</v>
+        <v>0.8057291507720947</v>
       </c>
     </row>
     <row r="40">
@@ -1554,7 +1554,7 @@
         <v>1</v>
       </c>
       <c r="F40" t="n">
-        <v>0.922728419303894</v>
+        <v>0.8763452172279358</v>
       </c>
     </row>
     <row r="41">
@@ -1582,7 +1582,7 @@
         <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>0.9929587841033936</v>
+        <v>0.9864480495452881</v>
       </c>
     </row>
     <row r="42">
@@ -1610,7 +1610,7 @@
         <v>1</v>
       </c>
       <c r="F42" t="n">
-        <v>0.8736686110496521</v>
+        <v>0.8794106841087341</v>
       </c>
     </row>
     <row r="43">
@@ -1638,7 +1638,7 @@
         <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>0.9489837288856506</v>
+        <v>0.9235427379608154</v>
       </c>
     </row>
     <row r="44">
@@ -1666,7 +1666,7 @@
         <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>0.9680622816085815</v>
+        <v>0.9464474320411682</v>
       </c>
     </row>
     <row r="45">
@@ -1694,7 +1694,7 @@
         <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>0.9492520689964294</v>
+        <v>0.9236573576927185</v>
       </c>
     </row>
     <row r="46">
@@ -1722,7 +1722,7 @@
         <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>0.9497727155685425</v>
+        <v>0.9202147722244263</v>
       </c>
     </row>
     <row r="47">
@@ -1750,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>0.8838471174240112</v>
+        <v>0.8720380067825317</v>
       </c>
     </row>
     <row r="48">
@@ -1778,7 +1778,7 @@
         <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>0.949694812297821</v>
+        <v>0.9205179214477539</v>
       </c>
     </row>
     <row r="49">
@@ -1806,7 +1806,7 @@
         <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>0.9929527640342712</v>
+        <v>0.9865503311157227</v>
       </c>
     </row>
     <row r="50">
@@ -1834,7 +1834,7 @@
         <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>0.9489990472793579</v>
+        <v>0.9226775765419006</v>
       </c>
     </row>
     <row r="51">
@@ -1862,7 +1862,7 @@
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>0.9482524394989014</v>
+        <v>0.9160711169242859</v>
       </c>
     </row>
     <row r="52">
@@ -1890,7 +1890,7 @@
         <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>0.9929935336112976</v>
+        <v>0.9856708645820618</v>
       </c>
     </row>
     <row r="53">
@@ -1918,7 +1918,7 @@
         <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>0.9489990472793579</v>
+        <v>0.9226775765419006</v>
       </c>
     </row>
     <row r="54">
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>0.9449368715286255</v>
+        <v>0.9225881695747375</v>
       </c>
     </row>
     <row r="55">
@@ -1974,7 +1974,7 @@
         <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>0.992988646030426</v>
+        <v>0.9861162304878235</v>
       </c>
     </row>
     <row r="56">
@@ -2002,7 +2002,7 @@
         <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>0.9929688572883606</v>
+        <v>0.9866929650306702</v>
       </c>
     </row>
     <row r="57">
@@ -2030,7 +2030,7 @@
         <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>0.9929648637771606</v>
+        <v>0.9864305257797241</v>
       </c>
     </row>
     <row r="58">
@@ -2058,7 +2058,7 @@
         <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>0.9680328965187073</v>
+        <v>0.9465330243110657</v>
       </c>
     </row>
     <row r="59">
@@ -2086,7 +2086,7 @@
         <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>0.992944061756134</v>
+        <v>0.9867660999298096</v>
       </c>
     </row>
     <row r="60">
@@ -2114,7 +2114,7 @@
         <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>0.9929805994033813</v>
+        <v>0.9865540862083435</v>
       </c>
     </row>
     <row r="61">
@@ -2142,7 +2142,7 @@
         <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>0.9928401708602905</v>
+        <v>0.9866997003555298</v>
       </c>
     </row>
     <row r="62">
@@ -2170,7 +2170,7 @@
         <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>0.9929808378219604</v>
+        <v>0.9863729476928711</v>
       </c>
     </row>
     <row r="63">
@@ -2198,7 +2198,7 @@
         <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>0.9680188894271851</v>
+        <v>0.9464397430419922</v>
       </c>
     </row>
     <row r="64">
@@ -2226,7 +2226,7 @@
         <v>1</v>
       </c>
       <c r="F64" t="n">
-        <v>0.96089106798172</v>
+        <v>0.8727474808692932</v>
       </c>
     </row>
     <row r="65">
@@ -2254,7 +2254,7 @@
         <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>0.9680115580558777</v>
+        <v>0.9464843273162842</v>
       </c>
     </row>
     <row r="66">
@@ -2282,7 +2282,7 @@
         <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>0.9680115580558777</v>
+        <v>0.9464843273162842</v>
       </c>
     </row>
     <row r="67">
@@ -2310,7 +2310,7 @@
         <v>1</v>
       </c>
       <c r="F67" t="n">
-        <v>0.9679740071296692</v>
+        <v>0.9464372992515564</v>
       </c>
     </row>
     <row r="68">
@@ -2338,7 +2338,7 @@
         <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>0.9680115580558777</v>
+        <v>0.9464843273162842</v>
       </c>
     </row>
     <row r="69">
@@ -2366,7 +2366,7 @@
         <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>0.9237508177757263</v>
+        <v>0.8779036998748779</v>
       </c>
     </row>
     <row r="70">
@@ -2394,7 +2394,7 @@
         <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>0.9930021166801453</v>
+        <v>0.9863199591636658</v>
       </c>
     </row>
     <row r="71">
@@ -2422,7 +2422,7 @@
         <v>1</v>
       </c>
       <c r="F71" t="n">
-        <v>0.9495168328285217</v>
+        <v>0.7372801303863525</v>
       </c>
     </row>
     <row r="72">
@@ -2450,7 +2450,7 @@
         <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>0.9929865002632141</v>
+        <v>0.9856768846511841</v>
       </c>
     </row>
     <row r="73">
@@ -2478,7 +2478,7 @@
         <v>1</v>
       </c>
       <c r="F73" t="n">
-        <v>0.9680694341659546</v>
+        <v>0.9464606046676636</v>
       </c>
     </row>
     <row r="74">
@@ -2506,7 +2506,7 @@
         <v>1</v>
       </c>
       <c r="F74" t="n">
-        <v>0.9929896593093872</v>
+        <v>0.9866785407066345</v>
       </c>
     </row>
     <row r="75">
@@ -2534,7 +2534,7 @@
         <v>1</v>
       </c>
       <c r="F75" t="n">
-        <v>0.9929962754249573</v>
+        <v>0.9860878586769104</v>
       </c>
     </row>
     <row r="76">
@@ -2562,7 +2562,7 @@
         <v>1</v>
       </c>
       <c r="F76" t="n">
-        <v>0.9680694341659546</v>
+        <v>0.9464606046676636</v>
       </c>
     </row>
     <row r="77">
@@ -2590,7 +2590,7 @@
         <v>1</v>
       </c>
       <c r="F77" t="n">
-        <v>0.9930177927017212</v>
+        <v>0.9860042929649353</v>
       </c>
     </row>
     <row r="78">
@@ -2618,7 +2618,7 @@
         <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>0.9680694341659546</v>
+        <v>0.9464606046676636</v>
       </c>
     </row>
     <row r="79">
@@ -2646,7 +2646,7 @@
         <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>0.9929811954498291</v>
+        <v>0.9861354827880859</v>
       </c>
     </row>
     <row r="80">
@@ -2674,7 +2674,7 @@
         <v>1</v>
       </c>
       <c r="F80" t="n">
-        <v>0.9680213928222656</v>
+        <v>0.9464441537857056</v>
       </c>
     </row>
     <row r="81">
@@ -2702,7 +2702,7 @@
         <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>0.9930046200752258</v>
+        <v>0.9859659075737</v>
       </c>
     </row>
     <row r="82">
@@ -2730,7 +2730,7 @@
         <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>0.9680213928222656</v>
+        <v>0.9464441537857056</v>
       </c>
     </row>
     <row r="83">
@@ -2758,7 +2758,7 @@
         <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>0.9929338693618774</v>
+        <v>0.9866881966590881</v>
       </c>
     </row>
     <row r="84">
@@ -2786,7 +2786,7 @@
         <v>1</v>
       </c>
       <c r="F84" t="n">
-        <v>0.9929338693618774</v>
+        <v>0.9866881966590881</v>
       </c>
     </row>
     <row r="85">
@@ -2814,7 +2814,7 @@
         <v>1</v>
       </c>
       <c r="F85" t="n">
-        <v>0.9929653406143188</v>
+        <v>0.9863362312316895</v>
       </c>
     </row>
     <row r="86">
@@ -2842,7 +2842,7 @@
         <v>1</v>
       </c>
       <c r="F86" t="n">
-        <v>0.9681371450424194</v>
+        <v>0.9464589953422546</v>
       </c>
     </row>
     <row r="87">
@@ -2870,7 +2870,7 @@
         <v>1</v>
       </c>
       <c r="F87" t="n">
-        <v>0.9929829835891724</v>
+        <v>0.9828869700431824</v>
       </c>
     </row>
     <row r="88">
@@ -2898,7 +2898,7 @@
         <v>1</v>
       </c>
       <c r="F88" t="n">
-        <v>0.9680574536323547</v>
+        <v>0.9464904069900513</v>
       </c>
     </row>
     <row r="89">
@@ -2926,7 +2926,7 @@
         <v>1</v>
       </c>
       <c r="F89" t="n">
-        <v>0.993005096912384</v>
+        <v>0.9860131144523621</v>
       </c>
     </row>
     <row r="90">
@@ -2954,7 +2954,7 @@
         <v>1</v>
       </c>
       <c r="F90" t="n">
-        <v>0.9929962754249573</v>
+        <v>0.986604630947113</v>
       </c>
     </row>
     <row r="91">
@@ -2982,7 +2982,7 @@
         <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>0.9929946064949036</v>
+        <v>0.9866129755973816</v>
       </c>
     </row>
     <row r="92">
@@ -3010,7 +3010,7 @@
         <v>1</v>
       </c>
       <c r="F92" t="n">
-        <v>0.9929962754249573</v>
+        <v>0.9865962862968445</v>
       </c>
     </row>
     <row r="93">
@@ -3038,7 +3038,7 @@
         <v>1</v>
       </c>
       <c r="F93" t="n">
-        <v>0.9929941296577454</v>
+        <v>0.9866211414337158</v>
       </c>
     </row>
     <row r="94">
@@ -3066,7 +3066,7 @@
         <v>1</v>
       </c>
       <c r="F94" t="n">
-        <v>0.992996871471405</v>
+        <v>0.9866329431533813</v>
       </c>
     </row>
     <row r="95">
@@ -3094,7 +3094,7 @@
         <v>1</v>
       </c>
       <c r="F95" t="n">
-        <v>0.99299556016922</v>
+        <v>0.9866201877593994</v>
       </c>
     </row>
     <row r="96">
@@ -3122,7 +3122,7 @@
         <v>1</v>
       </c>
       <c r="F96" t="n">
-        <v>0.9929759502410889</v>
+        <v>0.9864723682403564</v>
       </c>
     </row>
     <row r="97">
@@ -3150,7 +3150,7 @@
         <v>1</v>
       </c>
       <c r="F97" t="n">
-        <v>0.6725416779518127</v>
+        <v>0.702592134475708</v>
       </c>
     </row>
     <row r="98">
@@ -3178,7 +3178,7 @@
         <v>1</v>
       </c>
       <c r="F98" t="n">
-        <v>0.9929502010345459</v>
+        <v>0.9866337776184082</v>
       </c>
     </row>
     <row r="99">
@@ -3206,7 +3206,7 @@
         <v>1</v>
       </c>
       <c r="F99" t="n">
-        <v>0.9930103421211243</v>
+        <v>0.9810338020324707</v>
       </c>
     </row>
     <row r="100">
@@ -3234,7 +3234,7 @@
         <v>1</v>
       </c>
       <c r="F100" t="n">
-        <v>0.9929969906806946</v>
+        <v>0.9867657423019409</v>
       </c>
     </row>
     <row r="101">
@@ -3262,7 +3262,7 @@
         <v>1</v>
       </c>
       <c r="F101" t="n">
-        <v>0.9929835796356201</v>
+        <v>0.9862257242202759</v>
       </c>
     </row>
     <row r="102">
@@ -3290,7 +3290,7 @@
         <v>1</v>
       </c>
       <c r="F102" t="n">
-        <v>0.8776504993438721</v>
+        <v>0.8715128302574158</v>
       </c>
     </row>
     <row r="103">
@@ -3318,7 +3318,7 @@
         <v>0</v>
       </c>
       <c r="F103" t="n">
-        <v>0.9929861426353455</v>
+        <v>0.9859212040901184</v>
       </c>
     </row>
     <row r="104">
@@ -3346,7 +3346,7 @@
         <v>1</v>
       </c>
       <c r="F104" t="n">
-        <v>0.9930116534233093</v>
+        <v>0.9862171411514282</v>
       </c>
     </row>
     <row r="105">
@@ -3374,7 +3374,7 @@
         <v>1</v>
       </c>
       <c r="F105" t="n">
-        <v>0.923974871635437</v>
+        <v>0.8780112266540527</v>
       </c>
     </row>
     <row r="106">
@@ -3402,7 +3402,7 @@
         <v>1</v>
       </c>
       <c r="F106" t="n">
-        <v>0.99298095703125</v>
+        <v>0.9867615699768066</v>
       </c>
     </row>
     <row r="107">
@@ -3430,7 +3430,7 @@
         <v>1</v>
       </c>
       <c r="F107" t="n">
-        <v>0.9493291974067688</v>
+        <v>0.9238505959510803</v>
       </c>
     </row>
     <row r="108">
@@ -3458,7 +3458,7 @@
         <v>1</v>
       </c>
       <c r="F108" t="n">
-        <v>0.88664710521698</v>
+        <v>0.8722211718559265</v>
       </c>
     </row>
     <row r="109">
@@ -3486,7 +3486,7 @@
         <v>1</v>
       </c>
       <c r="F109" t="n">
-        <v>0.9929922819137573</v>
+        <v>0.9866588115692139</v>
       </c>
     </row>
     <row r="110">
@@ -3514,7 +3514,7 @@
         <v>1</v>
       </c>
       <c r="F110" t="n">
-        <v>0.9930249452590942</v>
+        <v>0.9859879612922668</v>
       </c>
     </row>
     <row r="111">
@@ -3542,7 +3542,7 @@
         <v>1</v>
       </c>
       <c r="F111" t="n">
-        <v>0.9493488669395447</v>
+        <v>0.9235979318618774</v>
       </c>
     </row>
     <row r="112">
@@ -3570,7 +3570,7 @@
         <v>1</v>
       </c>
       <c r="F112" t="n">
-        <v>0.9492028951644897</v>
+        <v>0.9232817888259888</v>
       </c>
     </row>
     <row r="113">
@@ -3598,7 +3598,7 @@
         <v>1</v>
       </c>
       <c r="F113" t="n">
-        <v>0.9682209491729736</v>
+        <v>0.9464843273162842</v>
       </c>
     </row>
     <row r="114">
@@ -3626,7 +3626,7 @@
         <v>1</v>
       </c>
       <c r="F114" t="n">
-        <v>0.9929764866828918</v>
+        <v>0.9863742589950562</v>
       </c>
     </row>
     <row r="115">
@@ -3654,7 +3654,7 @@
         <v>1</v>
       </c>
       <c r="F115" t="n">
-        <v>0.9681374430656433</v>
+        <v>0.9465404748916626</v>
       </c>
     </row>
     <row r="116">
@@ -3682,7 +3682,7 @@
         <v>1</v>
       </c>
       <c r="F116" t="n">
-        <v>0.9929414987564087</v>
+        <v>0.986641526222229</v>
       </c>
     </row>
     <row r="117">
@@ -3710,7 +3710,7 @@
         <v>1</v>
       </c>
       <c r="F117" t="n">
-        <v>0.9930068254470825</v>
+        <v>0.9867162704467773</v>
       </c>
     </row>
     <row r="118">
@@ -3738,7 +3738,7 @@
         <v>1</v>
       </c>
       <c r="F118" t="n">
-        <v>0.7853567004203796</v>
+        <v>0.3302013576030731</v>
       </c>
     </row>
     <row r="119">
@@ -3766,7 +3766,7 @@
         <v>1</v>
       </c>
       <c r="F119" t="n">
-        <v>0.9929676055908203</v>
+        <v>0.986693799495697</v>
       </c>
     </row>
     <row r="120">
@@ -3794,7 +3794,7 @@
         <v>1</v>
       </c>
       <c r="F120" t="n">
-        <v>0.9930249452590942</v>
+        <v>0.9859879612922668</v>
       </c>
     </row>
     <row r="121">
@@ -3822,7 +3822,7 @@
         <v>1</v>
       </c>
       <c r="F121" t="n">
-        <v>0.9237560033798218</v>
+        <v>0.8778766393661499</v>
       </c>
     </row>
     <row r="122">
@@ -3850,7 +3850,7 @@
         <v>1</v>
       </c>
       <c r="F122" t="n">
-        <v>0.9929499626159668</v>
+        <v>0.9867703914642334</v>
       </c>
     </row>
     <row r="123">
@@ -3878,7 +3878,7 @@
         <v>1</v>
       </c>
       <c r="F123" t="n">
-        <v>0.9237560033798218</v>
+        <v>0.8778766393661499</v>
       </c>
     </row>
     <row r="124">
@@ -3906,7 +3906,7 @@
         <v>1</v>
       </c>
       <c r="F124" t="n">
-        <v>0.9929499626159668</v>
+        <v>0.9867703914642334</v>
       </c>
     </row>
     <row r="125">
@@ -3934,7 +3934,7 @@
         <v>1</v>
       </c>
       <c r="F125" t="n">
-        <v>0.9237560033798218</v>
+        <v>0.8778766393661499</v>
       </c>
     </row>
     <row r="126">
@@ -3962,7 +3962,7 @@
         <v>1</v>
       </c>
       <c r="F126" t="n">
-        <v>0.9929618239402771</v>
+        <v>0.9864695072174072</v>
       </c>
     </row>
     <row r="127">
@@ -3983,14 +3983,14 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E127" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F127" t="n">
-        <v>0.8748818039894104</v>
+        <v>0.9379088282585144</v>
       </c>
     </row>
     <row r="128">
@@ -4018,7 +4018,7 @@
         <v>1</v>
       </c>
       <c r="F128" t="n">
-        <v>0.9930249452590942</v>
+        <v>0.9859879612922668</v>
       </c>
     </row>
     <row r="129">
@@ -4046,7 +4046,7 @@
         <v>1</v>
       </c>
       <c r="F129" t="n">
-        <v>0.9929840564727783</v>
+        <v>0.9862886667251587</v>
       </c>
     </row>
     <row r="130">
@@ -4074,7 +4074,7 @@
         <v>1</v>
       </c>
       <c r="F130" t="n">
-        <v>0.9929969906806946</v>
+        <v>0.9867934584617615</v>
       </c>
     </row>
     <row r="131">
@@ -4102,7 +4102,7 @@
         <v>1</v>
       </c>
       <c r="F131" t="n">
-        <v>0.9930154085159302</v>
+        <v>0.9867094159126282</v>
       </c>
     </row>
     <row r="132">
@@ -4123,14 +4123,14 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E132" t="b">
         <v>0</v>
       </c>
       <c r="F132" t="n">
-        <v>0.9928457140922546</v>
+        <v>0.6371177434921265</v>
       </c>
     </row>
     <row r="133">
@@ -4158,7 +4158,7 @@
         <v>1</v>
       </c>
       <c r="F133" t="n">
-        <v>0.992997407913208</v>
+        <v>0.9860408902168274</v>
       </c>
     </row>
     <row r="134">
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F134" t="n">
-        <v>0.9929921627044678</v>
+        <v>0.9867314696311951</v>
       </c>
     </row>
     <row r="135">
@@ -4214,7 +4214,7 @@
         <v>1</v>
       </c>
       <c r="F135" t="n">
-        <v>0.9929938912391663</v>
+        <v>0.9862737059593201</v>
       </c>
     </row>
     <row r="136">
@@ -4242,7 +4242,7 @@
         <v>1</v>
       </c>
       <c r="F136" t="n">
-        <v>0.9928814172744751</v>
+        <v>0.9866185784339905</v>
       </c>
     </row>
     <row r="137">
@@ -4270,7 +4270,7 @@
         <v>1</v>
       </c>
       <c r="F137" t="n">
-        <v>0.9930123686790466</v>
+        <v>0.9862046241760254</v>
       </c>
     </row>
     <row r="138">
@@ -4298,7 +4298,7 @@
         <v>1</v>
       </c>
       <c r="F138" t="n">
-        <v>0.9930062294006348</v>
+        <v>0.9867364764213562</v>
       </c>
     </row>
     <row r="139">
@@ -4326,7 +4326,7 @@
         <v>1</v>
       </c>
       <c r="F139" t="n">
-        <v>0.9930203557014465</v>
+        <v>0.9867246747016907</v>
       </c>
     </row>
     <row r="140">
@@ -4354,7 +4354,7 @@
         <v>1</v>
       </c>
       <c r="F140" t="n">
-        <v>0.9930283427238464</v>
+        <v>0.9860000014305115</v>
       </c>
     </row>
     <row r="141">
@@ -4375,14 +4375,14 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E141" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F141" t="n">
-        <v>0.5292224287986755</v>
+        <v>0.8681416511535645</v>
       </c>
     </row>
     <row r="142">
@@ -4410,7 +4410,7 @@
         <v>1</v>
       </c>
       <c r="F142" t="n">
-        <v>0.9930249452590942</v>
+        <v>0.9859879612922668</v>
       </c>
     </row>
     <row r="143">
@@ -4438,7 +4438,7 @@
         <v>1</v>
       </c>
       <c r="F143" t="n">
-        <v>0.9678718447685242</v>
+        <v>0.9464788436889648</v>
       </c>
     </row>
     <row r="144">
@@ -4466,7 +4466,7 @@
         <v>1</v>
       </c>
       <c r="F144" t="n">
-        <v>0.9929654598236084</v>
+        <v>0.9865778684616089</v>
       </c>
     </row>
     <row r="145">
@@ -4494,7 +4494,7 @@
         <v>1</v>
       </c>
       <c r="F145" t="n">
-        <v>0.9678718447685242</v>
+        <v>0.9464788436889648</v>
       </c>
     </row>
     <row r="146">
@@ -4522,7 +4522,7 @@
         <v>1</v>
       </c>
       <c r="F146" t="n">
-        <v>0.9929759502410889</v>
+        <v>0.9866055846214294</v>
       </c>
     </row>
     <row r="147">
@@ -4550,7 +4550,7 @@
         <v>1</v>
       </c>
       <c r="F147" t="n">
-        <v>0.9237508177757263</v>
+        <v>0.8779036998748779</v>
       </c>
     </row>
     <row r="148">
@@ -4578,7 +4578,7 @@
         <v>1</v>
       </c>
       <c r="F148" t="n">
-        <v>0.9929967522621155</v>
+        <v>0.9867780208587646</v>
       </c>
     </row>
     <row r="149">
@@ -4606,7 +4606,7 @@
         <v>1</v>
       </c>
       <c r="F149" t="n">
-        <v>0.9680551290512085</v>
+        <v>0.9464850425720215</v>
       </c>
     </row>
     <row r="150">
@@ -4634,7 +4634,7 @@
         <v>0</v>
       </c>
       <c r="F150" t="n">
-        <v>0.9928120970726013</v>
+        <v>0.9607438445091248</v>
       </c>
     </row>
     <row r="151">
@@ -4662,7 +4662,7 @@
         <v>1</v>
       </c>
       <c r="F151" t="n">
-        <v>0.9930249452590942</v>
+        <v>0.9859879612922668</v>
       </c>
     </row>
     <row r="152">
@@ -4683,14 +4683,14 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E152" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F152" t="n">
-        <v>0.8819094300270081</v>
+        <v>0.9867817759513855</v>
       </c>
     </row>
     <row r="153">
@@ -4718,7 +4718,7 @@
         <v>1</v>
       </c>
       <c r="F153" t="n">
-        <v>0.9929694533348083</v>
+        <v>0.9864135980606079</v>
       </c>
     </row>
     <row r="154">
@@ -4746,7 +4746,7 @@
         <v>1</v>
       </c>
       <c r="F154" t="n">
-        <v>0.8866689205169678</v>
+        <v>0.872420072555542</v>
       </c>
     </row>
     <row r="155">
@@ -4774,7 +4774,7 @@
         <v>1</v>
       </c>
       <c r="F155" t="n">
-        <v>0.9929797053337097</v>
+        <v>0.9861862659454346</v>
       </c>
     </row>
     <row r="156">
@@ -4802,7 +4802,7 @@
         <v>1</v>
       </c>
       <c r="F156" t="n">
-        <v>0.8866108059883118</v>
+        <v>0.8724206686019897</v>
       </c>
     </row>
     <row r="157">
@@ -4830,7 +4830,7 @@
         <v>1</v>
       </c>
       <c r="F157" t="n">
-        <v>0.9929775595664978</v>
+        <v>0.9865765571594238</v>
       </c>
     </row>
     <row r="158">
@@ -4858,7 +4858,7 @@
         <v>1</v>
       </c>
       <c r="F158" t="n">
-        <v>0.8867906928062439</v>
+        <v>0.8722862601280212</v>
       </c>
     </row>
     <row r="159">
@@ -4886,7 +4886,7 @@
         <v>1</v>
       </c>
       <c r="F159" t="n">
-        <v>0.9929705262184143</v>
+        <v>0.9866498112678528</v>
       </c>
     </row>
     <row r="160">
@@ -4914,7 +4914,7 @@
         <v>1</v>
       </c>
       <c r="F160" t="n">
-        <v>0.9686619639396667</v>
+        <v>0.9466435313224792</v>
       </c>
     </row>
     <row r="161">
@@ -4942,7 +4942,7 @@
         <v>1</v>
       </c>
       <c r="F161" t="n">
-        <v>0.9929986000061035</v>
+        <v>0.9866863489151001</v>
       </c>
     </row>
     <row r="162">
@@ -4963,14 +4963,14 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E162" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F162" t="n">
-        <v>0.9928981065750122</v>
+        <v>0.4131345152854919</v>
       </c>
     </row>
     <row r="163">
@@ -4998,7 +4998,7 @@
         <v>1</v>
       </c>
       <c r="F163" t="n">
-        <v>0.9930102229118347</v>
+        <v>0.9866319298744202</v>
       </c>
     </row>
     <row r="164">
@@ -5026,7 +5026,7 @@
         <v>1</v>
       </c>
       <c r="F164" t="n">
-        <v>0.9680371284484863</v>
+        <v>0.9465145468711853</v>
       </c>
     </row>
     <row r="165">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="F165" t="n">
-        <v>0.992969810962677</v>
+        <v>0.9863868951797485</v>
       </c>
     </row>
     <row r="166">
@@ -5082,7 +5082,7 @@
         <v>1</v>
       </c>
       <c r="F166" t="n">
-        <v>0.9929642677307129</v>
+        <v>0.9865463972091675</v>
       </c>
     </row>
     <row r="167">
@@ -5110,7 +5110,7 @@
         <v>1</v>
       </c>
       <c r="F167" t="n">
-        <v>0.9494338631629944</v>
+        <v>0.9219821095466614</v>
       </c>
     </row>
     <row r="168">
@@ -5138,7 +5138,7 @@
         <v>0</v>
       </c>
       <c r="F168" t="n">
-        <v>0.9684156179428101</v>
+        <v>0.9463142156600952</v>
       </c>
     </row>
     <row r="169">
@@ -5166,7 +5166,7 @@
         <v>1</v>
       </c>
       <c r="F169" t="n">
-        <v>0.9930249452590942</v>
+        <v>0.9859879612922668</v>
       </c>
     </row>
     <row r="170">
@@ -5194,7 +5194,7 @@
         <v>1</v>
       </c>
       <c r="F170" t="n">
-        <v>0.9494338631629944</v>
+        <v>0.9219821095466614</v>
       </c>
     </row>
     <row r="171">
@@ -5222,7 +5222,7 @@
         <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>0.9684696197509766</v>
+        <v>0.9466536045074463</v>
       </c>
     </row>
     <row r="172">
@@ -5250,7 +5250,7 @@
         <v>1</v>
       </c>
       <c r="F172" t="n">
-        <v>0.9930249452590942</v>
+        <v>0.9859879612922668</v>
       </c>
     </row>
     <row r="173">
@@ -5278,7 +5278,7 @@
         <v>1</v>
       </c>
       <c r="F173" t="n">
-        <v>0.9930083751678467</v>
+        <v>0.9867174625396729</v>
       </c>
     </row>
     <row r="174">
@@ -5306,7 +5306,7 @@
         <v>1</v>
       </c>
       <c r="F174" t="n">
-        <v>0.9930225014686584</v>
+        <v>0.9867029190063477</v>
       </c>
     </row>
     <row r="175">
@@ -5334,7 +5334,7 @@
         <v>1</v>
       </c>
       <c r="F175" t="n">
-        <v>0.9930083751678467</v>
+        <v>0.9867174625396729</v>
       </c>
     </row>
     <row r="176">
@@ -5362,7 +5362,7 @@
         <v>1</v>
       </c>
       <c r="F176" t="n">
-        <v>0.9930083751678467</v>
+        <v>0.9867174625396729</v>
       </c>
     </row>
     <row r="177">
@@ -5390,7 +5390,7 @@
         <v>1</v>
       </c>
       <c r="F177" t="n">
-        <v>0.9930225014686584</v>
+        <v>0.9867029190063477</v>
       </c>
     </row>
     <row r="178">
@@ -5418,7 +5418,7 @@
         <v>1</v>
       </c>
       <c r="F178" t="n">
-        <v>0.9929929971694946</v>
+        <v>0.9867569208145142</v>
       </c>
     </row>
     <row r="179">
@@ -5446,7 +5446,7 @@
         <v>1</v>
       </c>
       <c r="F179" t="n">
-        <v>0.9930300116539001</v>
+        <v>0.9856626391410828</v>
       </c>
     </row>
     <row r="180">
@@ -5474,7 +5474,7 @@
         <v>1</v>
       </c>
       <c r="F180" t="n">
-        <v>0.9929942488670349</v>
+        <v>0.98619544506073</v>
       </c>
     </row>
     <row r="181">
@@ -5502,7 +5502,7 @@
         <v>1</v>
       </c>
       <c r="F181" t="n">
-        <v>0.9929823875427246</v>
+        <v>0.9863066673278809</v>
       </c>
     </row>
     <row r="182">
@@ -5530,7 +5530,7 @@
         <v>1</v>
       </c>
       <c r="F182" t="n">
-        <v>0.992989182472229</v>
+        <v>0.9862297773361206</v>
       </c>
     </row>
     <row r="183">
@@ -5558,7 +5558,7 @@
         <v>1</v>
       </c>
       <c r="F183" t="n">
-        <v>0.9241160750389099</v>
+        <v>0.8779983520507812</v>
       </c>
     </row>
     <row r="184">
@@ -5586,7 +5586,7 @@
         <v>1</v>
       </c>
       <c r="F184" t="n">
-        <v>0.9929714798927307</v>
+        <v>0.9863211512565613</v>
       </c>
     </row>
     <row r="185">
@@ -5614,7 +5614,7 @@
         <v>1</v>
       </c>
       <c r="F185" t="n">
-        <v>0.9929714798927307</v>
+        <v>0.986330509185791</v>
       </c>
     </row>
     <row r="186">
@@ -5642,7 +5642,7 @@
         <v>1</v>
       </c>
       <c r="F186" t="n">
-        <v>0.9929699301719666</v>
+        <v>0.9866105914115906</v>
       </c>
     </row>
     <row r="187">
@@ -5670,7 +5670,7 @@
         <v>1</v>
       </c>
       <c r="F187" t="n">
-        <v>0.9929733276367188</v>
+        <v>0.9866684675216675</v>
       </c>
     </row>
     <row r="188">
@@ -5698,7 +5698,7 @@
         <v>1</v>
       </c>
       <c r="F188" t="n">
-        <v>0.9930002689361572</v>
+        <v>0.9867076873779297</v>
       </c>
     </row>
     <row r="189">
@@ -5726,7 +5726,7 @@
         <v>1</v>
       </c>
       <c r="F189" t="n">
-        <v>0.9929901361465454</v>
+        <v>0.9866277575492859</v>
       </c>
     </row>
     <row r="190">
@@ -5754,7 +5754,7 @@
         <v>1</v>
       </c>
       <c r="F190" t="n">
-        <v>0.9929928779602051</v>
+        <v>0.9866403937339783</v>
       </c>
     </row>
     <row r="191">
@@ -5782,7 +5782,7 @@
         <v>1</v>
       </c>
       <c r="F191" t="n">
-        <v>0.6697589755058289</v>
+        <v>0.7023211121559143</v>
       </c>
     </row>
     <row r="192">
@@ -5810,7 +5810,7 @@
         <v>1</v>
       </c>
       <c r="F192" t="n">
-        <v>0.9929868578910828</v>
+        <v>0.9861710667610168</v>
       </c>
     </row>
     <row r="193">
@@ -5838,7 +5838,7 @@
         <v>1</v>
       </c>
       <c r="F193" t="n">
-        <v>0.99299556016922</v>
+        <v>0.9861883521080017</v>
       </c>
     </row>
     <row r="194">
@@ -5866,7 +5866,7 @@
         <v>1</v>
       </c>
       <c r="F194" t="n">
-        <v>0.9236615300178528</v>
+        <v>0.8780117034912109</v>
       </c>
     </row>
     <row r="195">
@@ -5894,7 +5894,7 @@
         <v>1</v>
       </c>
       <c r="F195" t="n">
-        <v>0.9497200846672058</v>
+        <v>0.9147812128067017</v>
       </c>
     </row>
     <row r="196">
@@ -5922,7 +5922,7 @@
         <v>1</v>
       </c>
       <c r="F196" t="n">
-        <v>0.9929729700088501</v>
+        <v>0.9862573742866516</v>
       </c>
     </row>
     <row r="197">
@@ -5950,7 +5950,7 @@
         <v>1</v>
       </c>
       <c r="F197" t="n">
-        <v>0.9929648637771606</v>
+        <v>0.986689031124115</v>
       </c>
     </row>
     <row r="198">
@@ -5978,7 +5978,7 @@
         <v>1</v>
       </c>
       <c r="F198" t="n">
-        <v>0.9929601550102234</v>
+        <v>0.9866307377815247</v>
       </c>
     </row>
     <row r="199">
@@ -6006,7 +6006,7 @@
         <v>1</v>
       </c>
       <c r="F199" t="n">
-        <v>0.9929836988449097</v>
+        <v>0.9863057136535645</v>
       </c>
     </row>
     <row r="200">
@@ -6034,7 +6034,7 @@
         <v>0</v>
       </c>
       <c r="F200" t="n">
-        <v>0.9680731892585754</v>
+        <v>0.9463764429092407</v>
       </c>
     </row>
     <row r="201">
@@ -6062,7 +6062,7 @@
         <v>1</v>
       </c>
       <c r="F201" t="n">
-        <v>0.9929986000061035</v>
+        <v>0.9862349629402161</v>
       </c>
     </row>
     <row r="202">
@@ -6090,7 +6090,7 @@
         <v>1</v>
       </c>
       <c r="F202" t="n">
-        <v>0.9929987192153931</v>
+        <v>0.9863858222961426</v>
       </c>
     </row>
     <row r="203">
@@ -6118,7 +6118,7 @@
         <v>1</v>
       </c>
       <c r="F203" t="n">
-        <v>0.9929960370063782</v>
+        <v>0.9862421751022339</v>
       </c>
     </row>
     <row r="204">
@@ -6146,7 +6146,7 @@
         <v>1</v>
       </c>
       <c r="F204" t="n">
-        <v>0.9490368366241455</v>
+        <v>0.919269859790802</v>
       </c>
     </row>
     <row r="205">
@@ -6174,7 +6174,7 @@
         <v>1</v>
       </c>
       <c r="F205" t="n">
-        <v>0.9929662942886353</v>
+        <v>0.9865247011184692</v>
       </c>
     </row>
     <row r="206">
@@ -6202,7 +6202,7 @@
         <v>1</v>
       </c>
       <c r="F206" t="n">
-        <v>0.993012011051178</v>
+        <v>0.9866952896118164</v>
       </c>
     </row>
     <row r="207">
@@ -6230,7 +6230,7 @@
         <v>1</v>
       </c>
       <c r="F207" t="n">
-        <v>0.6707924604415894</v>
+        <v>0.702299952507019</v>
       </c>
     </row>
     <row r="208">
@@ -6258,7 +6258,7 @@
         <v>1</v>
       </c>
       <c r="F208" t="n">
-        <v>0.993025541305542</v>
+        <v>0.9856695532798767</v>
       </c>
     </row>
     <row r="209">
@@ -6286,7 +6286,7 @@
         <v>1</v>
       </c>
       <c r="F209" t="n">
-        <v>0.6569565534591675</v>
+        <v>0.6229081153869629</v>
       </c>
     </row>
     <row r="210">
@@ -6314,7 +6314,7 @@
         <v>1</v>
       </c>
       <c r="F210" t="n">
-        <v>0.9930048584938049</v>
+        <v>0.9858188033103943</v>
       </c>
     </row>
   </sheetData>
